--- a/data/pca/factorExposure/factorExposure_2010-04-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-12.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01404309473423832</v>
+        <v>-0.01705369675504075</v>
       </c>
       <c r="C2">
-        <v>-0.002407482744106599</v>
+        <v>-0.0009700728275872369</v>
       </c>
       <c r="D2">
-        <v>0.01052952256398297</v>
+        <v>-0.008496589959186302</v>
       </c>
       <c r="E2">
-        <v>0.01054575616195871</v>
+        <v>0.0001155919036258608</v>
       </c>
       <c r="F2">
-        <v>0.01810127104742498</v>
+        <v>-0.0104367114310627</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1199073917533141</v>
+        <v>-0.09301131097456311</v>
       </c>
       <c r="C4">
-        <v>0.07835424366637316</v>
+        <v>-0.01621695110905184</v>
       </c>
       <c r="D4">
-        <v>0.0005236404203913384</v>
+        <v>-0.08414174432793146</v>
       </c>
       <c r="E4">
-        <v>-0.008945940349929873</v>
+        <v>-0.03070787062477368</v>
       </c>
       <c r="F4">
-        <v>0.001202967759589946</v>
+        <v>0.03219313788632022</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1209689649467594</v>
+        <v>-0.1540779268959933</v>
       </c>
       <c r="C6">
-        <v>-0.0007166201397632035</v>
+        <v>-0.02452161274361334</v>
       </c>
       <c r="D6">
-        <v>0.01786705415397589</v>
+        <v>0.02257268808648159</v>
       </c>
       <c r="E6">
-        <v>0.03248135396849386</v>
+        <v>-0.008548817644733447</v>
       </c>
       <c r="F6">
-        <v>-0.05587182649708567</v>
+        <v>0.0444903963315933</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06932610579574044</v>
+        <v>-0.05928412532204615</v>
       </c>
       <c r="C7">
-        <v>0.06699126943502638</v>
+        <v>0.0008105032376911102</v>
       </c>
       <c r="D7">
-        <v>0.03515546027299089</v>
+        <v>-0.05227306835631509</v>
       </c>
       <c r="E7">
-        <v>0.02390791312972057</v>
+        <v>-0.01507961014395609</v>
       </c>
       <c r="F7">
-        <v>0.03483894687058232</v>
+        <v>0.05171889103087202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0545708453234802</v>
+        <v>-0.05815457020404454</v>
       </c>
       <c r="C8">
-        <v>0.03403490676699134</v>
+        <v>0.01316113508707702</v>
       </c>
       <c r="D8">
-        <v>0.02312768983209031</v>
+        <v>-0.0322173378270657</v>
       </c>
       <c r="E8">
-        <v>-0.007109061809816687</v>
+        <v>-0.01558917784226661</v>
       </c>
       <c r="F8">
-        <v>-0.02323522136998154</v>
+        <v>-0.02849456666840604</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0829244920894405</v>
+        <v>-0.07086667771977115</v>
       </c>
       <c r="C9">
-        <v>0.05769169953171064</v>
+        <v>-0.01218277788834383</v>
       </c>
       <c r="D9">
-        <v>0.01099625942302898</v>
+        <v>-0.08392402538515809</v>
       </c>
       <c r="E9">
-        <v>-0.01713388057053198</v>
+        <v>-0.02517913317478417</v>
       </c>
       <c r="F9">
-        <v>0.007987722885830939</v>
+        <v>0.0546490424187084</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1087153111498015</v>
+        <v>-0.09520640135126196</v>
       </c>
       <c r="C10">
-        <v>-0.1763434327941578</v>
+        <v>-0.01780405008102741</v>
       </c>
       <c r="D10">
-        <v>0.004418280772328738</v>
+        <v>0.1712720741040984</v>
       </c>
       <c r="E10">
-        <v>0.009719623886422935</v>
+        <v>0.03968929229169699</v>
       </c>
       <c r="F10">
-        <v>0.03771388767021886</v>
+        <v>-0.05268183509341436</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07680794786436865</v>
+        <v>-0.08733276526859872</v>
       </c>
       <c r="C11">
-        <v>0.05511541159747448</v>
+        <v>-0.0115721713590205</v>
       </c>
       <c r="D11">
-        <v>0.03399356172514362</v>
+        <v>-0.1144060432213997</v>
       </c>
       <c r="E11">
-        <v>-0.01814128717410243</v>
+        <v>-0.04957015588713074</v>
       </c>
       <c r="F11">
-        <v>-0.01152311570078569</v>
+        <v>0.0207936284410958</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07864951824402455</v>
+        <v>-0.09187694578028761</v>
       </c>
       <c r="C12">
-        <v>0.08359262612325684</v>
+        <v>-0.009173404280111709</v>
       </c>
       <c r="D12">
-        <v>0.03936564648425329</v>
+        <v>-0.1232945417391196</v>
       </c>
       <c r="E12">
-        <v>-0.06338997868772615</v>
+        <v>-0.0486515365035227</v>
       </c>
       <c r="F12">
-        <v>0.02322417488628261</v>
+        <v>0.02155631501619429</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03053349652591461</v>
+        <v>-0.04286394823263272</v>
       </c>
       <c r="C13">
-        <v>0.02695034606638032</v>
+        <v>-0.003776512533917744</v>
       </c>
       <c r="D13">
-        <v>0.003008616825180309</v>
+        <v>-0.0470943487233136</v>
       </c>
       <c r="E13">
-        <v>0.02030592517340847</v>
+        <v>0.01104068337544951</v>
       </c>
       <c r="F13">
-        <v>0.01446950821197121</v>
+        <v>0.01413514610717335</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03906632678153353</v>
+        <v>-0.02231322137254157</v>
       </c>
       <c r="C14">
-        <v>0.02285698107222629</v>
+        <v>-0.01427939635215911</v>
       </c>
       <c r="D14">
-        <v>-0.0003616963486287467</v>
+        <v>-0.03208890980569115</v>
       </c>
       <c r="E14">
-        <v>-0.02205552998648889</v>
+        <v>-0.01919652892373851</v>
       </c>
       <c r="F14">
-        <v>0.00308189948656096</v>
+        <v>0.02002551930818308</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01626176676793998</v>
+        <v>-0.03145328008732106</v>
       </c>
       <c r="C15">
-        <v>0.009986243629247974</v>
+        <v>-0.005438468783304426</v>
       </c>
       <c r="D15">
-        <v>0.002336819261000298</v>
+        <v>-0.04499830644670637</v>
       </c>
       <c r="E15">
-        <v>0.04305893749315195</v>
+        <v>-0.008943752587823086</v>
       </c>
       <c r="F15">
-        <v>0.01686642592802104</v>
+        <v>0.03052730270386115</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08472464327654783</v>
+        <v>-0.07326445063790873</v>
       </c>
       <c r="C16">
-        <v>0.06502362791955957</v>
+        <v>-0.003039367422897706</v>
       </c>
       <c r="D16">
-        <v>0.04400296331194348</v>
+        <v>-0.1174546427986826</v>
       </c>
       <c r="E16">
-        <v>-0.03956889438783508</v>
+        <v>-0.0638172523334118</v>
       </c>
       <c r="F16">
-        <v>-0.004674072434556885</v>
+        <v>0.02973560929607642</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02346491945672675</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003408412146008961</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01744696957621519</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.00927020765841541</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.01776298201656504</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04950240175832408</v>
+        <v>-0.06076776045851436</v>
       </c>
       <c r="C20">
-        <v>0.0376909880917841</v>
+        <v>-0.000745739504408979</v>
       </c>
       <c r="D20">
-        <v>-0.0211709420830842</v>
+        <v>-0.07577558799650345</v>
       </c>
       <c r="E20">
-        <v>0.0261993749407316</v>
+        <v>-0.05560163723751749</v>
       </c>
       <c r="F20">
-        <v>0.00990061067760669</v>
+        <v>0.02955336677642011</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02925427983270809</v>
+        <v>-0.03880433189358012</v>
       </c>
       <c r="C21">
-        <v>0.01289567047617923</v>
+        <v>-0.00692004148735522</v>
       </c>
       <c r="D21">
-        <v>-0.02189076736029938</v>
+        <v>-0.03782977227397871</v>
       </c>
       <c r="E21">
-        <v>-0.01444248536459955</v>
+        <v>0.007338159081409765</v>
       </c>
       <c r="F21">
-        <v>-0.01999867979008877</v>
+        <v>-0.01850058774915456</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02946213503653789</v>
+        <v>-0.04255757336099494</v>
       </c>
       <c r="C22">
-        <v>-0.01792713535656128</v>
+        <v>-0.0005013893755007923</v>
       </c>
       <c r="D22">
-        <v>0.03470342693406036</v>
+        <v>-0.001630985937146805</v>
       </c>
       <c r="E22">
-        <v>0.606568625623532</v>
+        <v>-0.02967235863163743</v>
       </c>
       <c r="F22">
-        <v>0.170006095947959</v>
+        <v>-0.008566009992034686</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0296959511083951</v>
+        <v>-0.04261152146446234</v>
       </c>
       <c r="C23">
-        <v>-0.01726616278792001</v>
+        <v>-0.0005236747267384956</v>
       </c>
       <c r="D23">
-        <v>0.03605798825785328</v>
+        <v>-0.001758498849523884</v>
       </c>
       <c r="E23">
-        <v>0.6099937837762398</v>
+        <v>-0.0300321902958452</v>
       </c>
       <c r="F23">
-        <v>0.1688806171308469</v>
+        <v>-0.00811118518058772</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08466664373901429</v>
+        <v>-0.07964348475275942</v>
       </c>
       <c r="C24">
-        <v>0.06576949568717307</v>
+        <v>-0.003255737458010111</v>
       </c>
       <c r="D24">
-        <v>0.02313531980442189</v>
+        <v>-0.1186282188165094</v>
       </c>
       <c r="E24">
-        <v>-0.03334112558504221</v>
+        <v>-0.05163664866474814</v>
       </c>
       <c r="F24">
-        <v>0.0006625749671287516</v>
+        <v>0.02283888208606022</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09046722768317408</v>
+        <v>-0.08454883055139166</v>
       </c>
       <c r="C25">
-        <v>0.06572626053183282</v>
+        <v>-0.005390841802529191</v>
       </c>
       <c r="D25">
-        <v>0.03495886830074073</v>
+        <v>-0.1067203055196037</v>
       </c>
       <c r="E25">
-        <v>-0.06515860725954416</v>
+        <v>-0.0347740339095509</v>
       </c>
       <c r="F25">
-        <v>0.01574969121404645</v>
+        <v>0.03027338249101224</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04093080898580034</v>
+        <v>-0.05446152907805873</v>
       </c>
       <c r="C26">
-        <v>-0.008406276096962402</v>
+        <v>-0.01485210133831403</v>
       </c>
       <c r="D26">
-        <v>-0.009916401590093204</v>
+        <v>-0.03812017876577199</v>
       </c>
       <c r="E26">
-        <v>0.01334533864265754</v>
+        <v>-0.02793792286389311</v>
       </c>
       <c r="F26">
-        <v>-0.01502122330471754</v>
+        <v>-0.01196003798058276</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1208529159116052</v>
+        <v>-0.1436891154845258</v>
       </c>
       <c r="C28">
-        <v>-0.3138403349007368</v>
+        <v>-0.01611785130627025</v>
       </c>
       <c r="D28">
-        <v>0.04278122063066668</v>
+        <v>0.2657857587996591</v>
       </c>
       <c r="E28">
-        <v>-0.02918911734417008</v>
+        <v>0.06931835922400019</v>
       </c>
       <c r="F28">
-        <v>-0.01991231543630494</v>
+        <v>0.02998755154823293</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03357473461364899</v>
+        <v>-0.02720948620587061</v>
       </c>
       <c r="C29">
-        <v>0.02039352275514806</v>
+        <v>-0.008685361714410072</v>
       </c>
       <c r="D29">
-        <v>0.009395090766468162</v>
+        <v>-0.03066105683151974</v>
       </c>
       <c r="E29">
-        <v>-0.03695836666994556</v>
+        <v>-0.01217373565448502</v>
       </c>
       <c r="F29">
-        <v>0.03810724642287699</v>
+        <v>-0.01143997400813396</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1038560607336676</v>
+        <v>-0.06256812758496713</v>
       </c>
       <c r="C30">
-        <v>0.08804052365917783</v>
+        <v>-0.004467806569942276</v>
       </c>
       <c r="D30">
-        <v>0.05311213934419171</v>
+        <v>-0.08660023210980423</v>
       </c>
       <c r="E30">
-        <v>-0.04330377990520794</v>
+        <v>-0.02507453359375839</v>
       </c>
       <c r="F30">
-        <v>-0.04966660263759731</v>
+        <v>0.1056697603906702</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03070569911621967</v>
+        <v>-0.04828120730019057</v>
       </c>
       <c r="C31">
-        <v>0.03670959898354288</v>
+        <v>-0.0149447537399453</v>
       </c>
       <c r="D31">
-        <v>-0.0047676459597069</v>
+        <v>-0.02820676757467049</v>
       </c>
       <c r="E31">
-        <v>0.001553276737662809</v>
+        <v>-0.02722317796756959</v>
       </c>
       <c r="F31">
-        <v>0.006474167646728187</v>
+        <v>-0.004485958791173055</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05846441299973564</v>
+        <v>-0.04805560602019703</v>
       </c>
       <c r="C32">
-        <v>0.01708848861291491</v>
+        <v>0.0001676616755941401</v>
       </c>
       <c r="D32">
-        <v>-0.01554903509372181</v>
+        <v>-0.03084138196176485</v>
       </c>
       <c r="E32">
-        <v>-0.06704352625617342</v>
+        <v>-0.03028657685533511</v>
       </c>
       <c r="F32">
-        <v>-0.07368397039163767</v>
+        <v>0.002847547435491301</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09298014471887749</v>
+        <v>-0.08989350570503764</v>
       </c>
       <c r="C33">
-        <v>0.07520765540228549</v>
+        <v>-0.008677756962891657</v>
       </c>
       <c r="D33">
-        <v>0.06998894409293263</v>
+        <v>-0.09486532350830415</v>
       </c>
       <c r="E33">
-        <v>-0.02450481543446302</v>
+        <v>-0.04743226546125529</v>
       </c>
       <c r="F33">
-        <v>0.009540653751233153</v>
+        <v>0.04186297316648211</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0723846180554843</v>
+        <v>-0.06734608457248377</v>
       </c>
       <c r="C34">
-        <v>0.0591855349393783</v>
+        <v>-0.01178795339730646</v>
       </c>
       <c r="D34">
-        <v>0.02812289251025844</v>
+        <v>-0.0989938731977691</v>
       </c>
       <c r="E34">
-        <v>-0.03650115213194127</v>
+        <v>-0.03617857555127235</v>
       </c>
       <c r="F34">
-        <v>0.007084511076880742</v>
+        <v>0.04044730063865107</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01008131905140945</v>
+        <v>-0.02426996292747255</v>
       </c>
       <c r="C35">
-        <v>0.01387086211959714</v>
+        <v>-0.002401756163904331</v>
       </c>
       <c r="D35">
-        <v>0.006879263536040829</v>
+        <v>-0.01205366144357887</v>
       </c>
       <c r="E35">
-        <v>-0.0005423794604814996</v>
+        <v>-0.01138363843159351</v>
       </c>
       <c r="F35">
-        <v>0.01528913778853893</v>
+        <v>0.008983244971765211</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02685126604104773</v>
+        <v>-0.02438565306565498</v>
       </c>
       <c r="C36">
-        <v>0.01711791047660748</v>
+        <v>-0.007197529789144642</v>
       </c>
       <c r="D36">
-        <v>0.008462701150598462</v>
+        <v>-0.03707857519948109</v>
       </c>
       <c r="E36">
-        <v>0.008151187025916221</v>
+        <v>-0.01817670183089052</v>
       </c>
       <c r="F36">
-        <v>-0.004918057775392263</v>
+        <v>0.01298004329363212</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.008210134208878856</v>
+        <v>-0.00156353258975211</v>
       </c>
       <c r="C38">
-        <v>0.01156939523300344</v>
+        <v>-0.0002461463849964476</v>
       </c>
       <c r="D38">
-        <v>0.005685976861922064</v>
+        <v>-0.001161276683581957</v>
       </c>
       <c r="E38">
-        <v>0.01988561649459062</v>
+        <v>-0.001399955390602204</v>
       </c>
       <c r="F38">
-        <v>0.03368178683710988</v>
+        <v>-0.001070317725618966</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1213293676980099</v>
+        <v>-0.1079372033559793</v>
       </c>
       <c r="C39">
-        <v>0.1153455506469373</v>
+        <v>-0.01678504005009334</v>
       </c>
       <c r="D39">
-        <v>0.06689205231226335</v>
+        <v>-0.1542645195695044</v>
       </c>
       <c r="E39">
-        <v>-0.1421348066788721</v>
+        <v>-0.06211874725459601</v>
       </c>
       <c r="F39">
-        <v>0.007895940206418253</v>
+        <v>0.02746404795493988</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.006362521887694953</v>
+        <v>-0.03714320167246975</v>
       </c>
       <c r="C40">
-        <v>0.02720450191011403</v>
+        <v>-0.007318135379408013</v>
       </c>
       <c r="D40">
-        <v>-0.01579146949024377</v>
+        <v>-0.03133493733062701</v>
       </c>
       <c r="E40">
-        <v>0.06800161679068494</v>
+        <v>-0.003517654809185982</v>
       </c>
       <c r="F40">
-        <v>0.04004305041773565</v>
+        <v>-0.01270394170751199</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02616597869644134</v>
+        <v>-0.02630040304986298</v>
       </c>
       <c r="C41">
-        <v>0.002520566632137602</v>
+        <v>-0.006593791783121684</v>
       </c>
       <c r="D41">
-        <v>-0.003128898375930611</v>
+        <v>-0.01157566748099405</v>
       </c>
       <c r="E41">
-        <v>-0.006361632274035159</v>
+        <v>-0.01268886950055732</v>
       </c>
       <c r="F41">
-        <v>0.008496132714105155</v>
+        <v>-0.008643959911107909</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03677827221122877</v>
+        <v>-0.04061287455613503</v>
       </c>
       <c r="C43">
-        <v>0.006528130942881223</v>
+        <v>-0.006749285627296591</v>
       </c>
       <c r="D43">
-        <v>0.01933693972029488</v>
+        <v>-0.02137492262910755</v>
       </c>
       <c r="E43">
-        <v>-0.002277891729113593</v>
+        <v>-0.02495129487537212</v>
       </c>
       <c r="F43">
-        <v>3.323635388559996e-05</v>
+        <v>-0.01256230285336295</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1199755450291881</v>
+        <v>-0.0759189689570067</v>
       </c>
       <c r="C44">
-        <v>0.1341508829300008</v>
+        <v>-0.02180916736854586</v>
       </c>
       <c r="D44">
-        <v>0.06867513018554273</v>
+        <v>-0.09493947694842567</v>
       </c>
       <c r="E44">
-        <v>0.09823748399074149</v>
+        <v>-0.07598593465816432</v>
       </c>
       <c r="F44">
-        <v>0.1033593306218805</v>
+        <v>0.1882150595395694</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01804211516238799</v>
+        <v>-0.02217836056997536</v>
       </c>
       <c r="C46">
-        <v>-0.01885150066957706</v>
+        <v>-0.003822789928292564</v>
       </c>
       <c r="D46">
-        <v>0.02340208822822582</v>
+        <v>-0.01193711849112009</v>
       </c>
       <c r="E46">
-        <v>0.02344037161641336</v>
+        <v>-0.0239751386847118</v>
       </c>
       <c r="F46">
-        <v>0.02747353065508321</v>
+        <v>0.001302885130491267</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03698215064145494</v>
+        <v>-0.05184981932431957</v>
       </c>
       <c r="C47">
-        <v>0.01602262637301697</v>
+        <v>-0.003263401637752392</v>
       </c>
       <c r="D47">
-        <v>-1.520247394898079e-05</v>
+        <v>-0.01289144422645436</v>
       </c>
       <c r="E47">
-        <v>-0.006041050862700691</v>
+        <v>-0.02202563801368095</v>
       </c>
       <c r="F47">
-        <v>-0.0001449225725191127</v>
+        <v>-0.04511265753198864</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04357527767244232</v>
+        <v>-0.04752148254933353</v>
       </c>
       <c r="C48">
-        <v>0.01985600910042417</v>
+        <v>-0.002735773556196244</v>
       </c>
       <c r="D48">
-        <v>0.004531568946584166</v>
+        <v>-0.0486572536415986</v>
       </c>
       <c r="E48">
-        <v>-0.009338053744822106</v>
+        <v>0.004089924958489857</v>
       </c>
       <c r="F48">
-        <v>0.01767957987193499</v>
+        <v>0.01073768368580522</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2260383323668067</v>
+        <v>-0.2026418702151245</v>
       </c>
       <c r="C49">
-        <v>-0.002253837887506913</v>
+        <v>-0.01768189061405296</v>
       </c>
       <c r="D49">
-        <v>-0.05149395635674597</v>
+        <v>0.01010660305358985</v>
       </c>
       <c r="E49">
-        <v>-0.02441015704949843</v>
+        <v>-0.0326750236464965</v>
       </c>
       <c r="F49">
-        <v>0.05123461334249048</v>
+        <v>0.03139159735988214</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03850290350786544</v>
+        <v>-0.04817932038203792</v>
       </c>
       <c r="C50">
-        <v>0.02666152174565477</v>
+        <v>-0.01103864610580677</v>
       </c>
       <c r="D50">
-        <v>-0.01026283899809274</v>
+        <v>-0.0267316673228194</v>
       </c>
       <c r="E50">
-        <v>-0.01124504187114538</v>
+        <v>-0.02975623960380672</v>
       </c>
       <c r="F50">
-        <v>0.003139074923360735</v>
+        <v>0.008849492123197699</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01270959653567126</v>
+        <v>-0.002352037772165404</v>
       </c>
       <c r="C51">
-        <v>-0.01899591508920516</v>
+        <v>-0.0006279319550704938</v>
       </c>
       <c r="D51">
-        <v>0.01818297321574006</v>
+        <v>0.002812616397715635</v>
       </c>
       <c r="E51">
-        <v>0.005723234883507205</v>
+        <v>0.000450260400857418</v>
       </c>
       <c r="F51">
-        <v>0.01094066509276243</v>
+        <v>0.005487013694922346</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1030542253631104</v>
+        <v>-0.1447212599116202</v>
       </c>
       <c r="C52">
-        <v>0.08005537553019337</v>
+        <v>-0.01365550650178851</v>
       </c>
       <c r="D52">
-        <v>-0.002662521647402779</v>
+        <v>-0.05175142053018397</v>
       </c>
       <c r="E52">
-        <v>-0.01292561944553915</v>
+        <v>-0.02403252275356942</v>
       </c>
       <c r="F52">
-        <v>0.01420436870926994</v>
+        <v>0.03202809890963408</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.161932675360592</v>
+        <v>-0.174201989937543</v>
       </c>
       <c r="C53">
-        <v>0.04290407047962066</v>
+        <v>-0.0164375404868079</v>
       </c>
       <c r="D53">
-        <v>-0.004733297421259504</v>
+        <v>-0.01163189136191728</v>
       </c>
       <c r="E53">
-        <v>0.0184190339505974</v>
+        <v>-0.03540748266672557</v>
       </c>
       <c r="F53">
-        <v>0.03362260954803231</v>
+        <v>0.06354345983291422</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05082009999959669</v>
+        <v>-0.02138550618405761</v>
       </c>
       <c r="C54">
-        <v>0.04471357179339281</v>
+        <v>-0.01238681488301961</v>
       </c>
       <c r="D54">
-        <v>-0.001157778931540865</v>
+        <v>-0.03339147956285753</v>
       </c>
       <c r="E54">
-        <v>0.02389584231643354</v>
+        <v>-0.01632199206520043</v>
       </c>
       <c r="F54">
-        <v>0.00837463685382407</v>
+        <v>-0.004712247299311875</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08638045095719472</v>
+        <v>-0.1142703239572303</v>
       </c>
       <c r="C55">
-        <v>0.03908058348883776</v>
+        <v>-0.01542739573841642</v>
       </c>
       <c r="D55">
-        <v>0.05656259852216877</v>
+        <v>-0.01071073685870532</v>
       </c>
       <c r="E55">
-        <v>-0.02605488440542269</v>
+        <v>-0.03002465974150671</v>
       </c>
       <c r="F55">
-        <v>0.01950290192904856</v>
+        <v>0.04327784331508723</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1566899094663035</v>
+        <v>-0.1778928413538906</v>
       </c>
       <c r="C56">
-        <v>0.05936952249281498</v>
+        <v>-0.01395438182748221</v>
       </c>
       <c r="D56">
-        <v>0.01522717568123488</v>
+        <v>-0.0071394291959997</v>
       </c>
       <c r="E56">
-        <v>-0.01263716360379712</v>
+        <v>-0.03934644745114636</v>
       </c>
       <c r="F56">
-        <v>0.0625152215201777</v>
+        <v>0.03893704374515026</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04952208670991874</v>
+        <v>-0.04652737816613215</v>
       </c>
       <c r="C58">
-        <v>0.01764125772945355</v>
+        <v>-0.001568801596270637</v>
       </c>
       <c r="D58">
-        <v>-0.01208499485915001</v>
+        <v>-0.06640351775373106</v>
       </c>
       <c r="E58">
-        <v>0.05184384088893056</v>
+        <v>-0.02423841124509589</v>
       </c>
       <c r="F58">
-        <v>0.02427673842908779</v>
+        <v>-0.04273974658102296</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1812061988922702</v>
+        <v>-0.172585745307435</v>
       </c>
       <c r="C59">
-        <v>-0.2446690106961279</v>
+        <v>-0.01705751214509315</v>
       </c>
       <c r="D59">
-        <v>0.06158343859077591</v>
+        <v>0.2227512788275017</v>
       </c>
       <c r="E59">
-        <v>-0.03897398472008473</v>
+        <v>0.04904987476833031</v>
       </c>
       <c r="F59">
-        <v>0.007040670295389908</v>
+        <v>-0.03168084399755133</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.263533429895382</v>
+        <v>-0.2361502426199859</v>
       </c>
       <c r="C60">
-        <v>0.1800374035801119</v>
+        <v>0.004001614329386103</v>
       </c>
       <c r="D60">
-        <v>-0.06030093465313716</v>
+        <v>-0.04809607929052186</v>
       </c>
       <c r="E60">
-        <v>-0.06786151921563299</v>
+        <v>-0.007579211051082575</v>
       </c>
       <c r="F60">
-        <v>0.1788036596158615</v>
+        <v>-0.0322362743311289</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1102542269772256</v>
+        <v>-0.08287936459923449</v>
       </c>
       <c r="C61">
-        <v>0.0657669539528756</v>
+        <v>-0.01303680372114351</v>
       </c>
       <c r="D61">
-        <v>0.05028799423551084</v>
+        <v>-0.1140260555246771</v>
       </c>
       <c r="E61">
-        <v>-0.08486962901735122</v>
+        <v>-0.04286885773540447</v>
       </c>
       <c r="F61">
-        <v>0.02670665599612774</v>
+        <v>0.01529694768642699</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1563331899617433</v>
+        <v>-0.1702952306535737</v>
       </c>
       <c r="C62">
-        <v>0.04609952309478219</v>
+        <v>-0.01773035126191741</v>
       </c>
       <c r="D62">
-        <v>0.01910605132696944</v>
+        <v>-0.01158998030669684</v>
       </c>
       <c r="E62">
-        <v>0.003569436173507671</v>
+        <v>-0.0366010450763363</v>
       </c>
       <c r="F62">
-        <v>0.05062172973833112</v>
+        <v>0.02021413727728066</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03871371944042955</v>
+        <v>-0.04240818400186305</v>
       </c>
       <c r="C63">
-        <v>-0.001721923220602245</v>
+        <v>-0.002983719837109014</v>
       </c>
       <c r="D63">
-        <v>0.00747509147814495</v>
+        <v>-0.05207288248678758</v>
       </c>
       <c r="E63">
-        <v>-0.002239267036774252</v>
+        <v>-0.02287788109914015</v>
       </c>
       <c r="F63">
-        <v>-0.04257294710303724</v>
+        <v>0.006340112964928535</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09510897501189436</v>
+        <v>-0.1118626022667431</v>
       </c>
       <c r="C64">
-        <v>0.02894084986277891</v>
+        <v>-0.01114139740967758</v>
       </c>
       <c r="D64">
-        <v>-0.0003732241227008295</v>
+        <v>-0.04358134926827968</v>
       </c>
       <c r="E64">
-        <v>-0.00724407663057041</v>
+        <v>-0.02096836673423232</v>
       </c>
       <c r="F64">
-        <v>0.06687269217140834</v>
+        <v>0.0246445305914905</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.111991289170777</v>
+        <v>-0.1455415436422817</v>
       </c>
       <c r="C65">
-        <v>-0.002641482346931196</v>
+        <v>-0.03116394196306007</v>
       </c>
       <c r="D65">
-        <v>0.006531476059685332</v>
+        <v>0.04413301197597889</v>
       </c>
       <c r="E65">
-        <v>-0.005308520040122542</v>
+        <v>0.0009381857401191023</v>
       </c>
       <c r="F65">
-        <v>-0.06225172826893782</v>
+        <v>0.04638411908652978</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1369860851494298</v>
+        <v>-0.1290889430856978</v>
       </c>
       <c r="C66">
-        <v>0.1195115775832892</v>
+        <v>-0.01459022325270023</v>
       </c>
       <c r="D66">
-        <v>0.06452230050765027</v>
+        <v>-0.1423547835882069</v>
       </c>
       <c r="E66">
-        <v>-0.1145919927730438</v>
+        <v>-0.06899729068198705</v>
       </c>
       <c r="F66">
-        <v>0.01614874378829556</v>
+        <v>0.03207298018532539</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06530971885407534</v>
+        <v>-0.0620971588577128</v>
       </c>
       <c r="C67">
-        <v>0.04780937606061007</v>
+        <v>-0.003267841297731034</v>
       </c>
       <c r="D67">
-        <v>0.08169362715734256</v>
+        <v>-0.05330683709877548</v>
       </c>
       <c r="E67">
-        <v>0.01853459866806065</v>
+        <v>-0.01766994489085667</v>
       </c>
       <c r="F67">
-        <v>0.02139786805243288</v>
+        <v>-0.04124879237749004</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1050129458570431</v>
+        <v>-0.1169433850656534</v>
       </c>
       <c r="C68">
-        <v>-0.2633515031057378</v>
+        <v>-0.02688484102091748</v>
       </c>
       <c r="D68">
-        <v>0.02837968601951216</v>
+        <v>0.2618619988634657</v>
       </c>
       <c r="E68">
-        <v>-0.03832968969063707</v>
+        <v>0.08753786254358532</v>
       </c>
       <c r="F68">
-        <v>-0.03735866332571246</v>
+        <v>0.03316930320819777</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03240286371001532</v>
+        <v>-0.03946205907245354</v>
       </c>
       <c r="C69">
-        <v>-0.009062839093286023</v>
+        <v>-0.0009293839877884929</v>
       </c>
       <c r="D69">
-        <v>0.03675886313996131</v>
+        <v>-0.009169453191933005</v>
       </c>
       <c r="E69">
-        <v>0.002304417178583429</v>
+        <v>-0.02412338048318042</v>
       </c>
       <c r="F69">
-        <v>0.0158816211750544</v>
+        <v>-0.01181743124703551</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0330342401480631</v>
+        <v>-0.06251029552134399</v>
       </c>
       <c r="C70">
-        <v>0.001989893393625145</v>
+        <v>0.0284066510222814</v>
       </c>
       <c r="D70">
-        <v>0.04120203646234584</v>
+        <v>-0.02965049004062256</v>
       </c>
       <c r="E70">
-        <v>-0.03852901015689209</v>
+        <v>0.05049578211753299</v>
       </c>
       <c r="F70">
-        <v>0.04073755860917267</v>
+        <v>-0.2781888178946536</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1225361938805429</v>
+        <v>-0.1362360045361006</v>
       </c>
       <c r="C71">
-        <v>-0.2809405453322151</v>
+        <v>-0.03113617299594777</v>
       </c>
       <c r="D71">
-        <v>0.04241500510814005</v>
+        <v>0.2774448918927201</v>
       </c>
       <c r="E71">
-        <v>-0.03044743508834257</v>
+        <v>0.09614616532654832</v>
       </c>
       <c r="F71">
-        <v>0.009171248594131209</v>
+        <v>0.0391422352876582</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1451293088797064</v>
+        <v>-0.1409277367003233</v>
       </c>
       <c r="C72">
-        <v>0.01092109936919165</v>
+        <v>-0.02460960231936946</v>
       </c>
       <c r="D72">
-        <v>-0.002003024542134018</v>
+        <v>-0.004795468792689705</v>
       </c>
       <c r="E72">
-        <v>0.01327932156527631</v>
+        <v>-0.04505830387877822</v>
       </c>
       <c r="F72">
-        <v>-0.008827784135955644</v>
+        <v>0.02314786797042404</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.223894730667356</v>
+        <v>-0.2032827226682777</v>
       </c>
       <c r="C73">
-        <v>0.04588266623313841</v>
+        <v>-0.01174753614909812</v>
       </c>
       <c r="D73">
-        <v>0.04908578009405107</v>
+        <v>-0.01650972997635449</v>
       </c>
       <c r="E73">
-        <v>-0.06431086105793239</v>
+        <v>-0.06239434014068548</v>
       </c>
       <c r="F73">
-        <v>0.1277529098488299</v>
+        <v>0.03230065689192604</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1196736064101806</v>
+        <v>-0.09490718229844237</v>
       </c>
       <c r="C74">
-        <v>0.06647982760618934</v>
+        <v>-0.01214523625356893</v>
       </c>
       <c r="D74">
-        <v>0.02915787531216236</v>
+        <v>-0.02006597017681708</v>
       </c>
       <c r="E74">
-        <v>0.007986607553664067</v>
+        <v>-0.04815310933981569</v>
       </c>
       <c r="F74">
-        <v>0.02384000164947863</v>
+        <v>0.0468116955358093</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1175370598688851</v>
+        <v>-0.1297742398799813</v>
       </c>
       <c r="C75">
-        <v>0.05868269749459658</v>
+        <v>-0.02637722830008487</v>
       </c>
       <c r="D75">
-        <v>0.001995053691092647</v>
+        <v>-0.03430570960412004</v>
       </c>
       <c r="E75">
-        <v>0.008542121199034238</v>
+        <v>-0.06049178805809963</v>
       </c>
       <c r="F75">
-        <v>0.002894974518760854</v>
+        <v>0.01194702264803594</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0222501906167828</v>
+        <v>-0.003881265424165994</v>
       </c>
       <c r="C76">
-        <v>-0.01374581263515388</v>
+        <v>-0.0009184723105793122</v>
       </c>
       <c r="D76">
-        <v>0.01489022996754066</v>
+        <v>0.002527038706847383</v>
       </c>
       <c r="E76">
-        <v>-0.01120394708056205</v>
+        <v>-0.0006478740380089853</v>
       </c>
       <c r="F76">
-        <v>0.01883225972384226</v>
+        <v>0.004099995090911981</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06608595156691036</v>
+        <v>-0.07776070553913451</v>
       </c>
       <c r="C77">
-        <v>0.04647771134992489</v>
+        <v>-0.009111067471129206</v>
       </c>
       <c r="D77">
-        <v>-0.02135698273898705</v>
+        <v>-0.1159019522508236</v>
       </c>
       <c r="E77">
-        <v>0.005960681443129036</v>
+        <v>-0.03797629366354085</v>
       </c>
       <c r="F77">
-        <v>0.05022208591844937</v>
+        <v>0.03291152315919221</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1179796081434649</v>
+        <v>-0.1043335198601391</v>
       </c>
       <c r="C78">
-        <v>0.06046763444881232</v>
+        <v>-0.04080975544498721</v>
       </c>
       <c r="D78">
-        <v>0.07720404600591187</v>
+        <v>-0.1151980792627081</v>
       </c>
       <c r="E78">
-        <v>0.3243006515117161</v>
+        <v>-0.07962991387458142</v>
       </c>
       <c r="F78">
-        <v>-0.2831144759132077</v>
+        <v>0.07627096105550474</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1364697244823419</v>
+        <v>-0.1642554749857676</v>
       </c>
       <c r="C79">
-        <v>0.05175591506442489</v>
+        <v>-0.02046984289506656</v>
       </c>
       <c r="D79">
-        <v>-0.01854619108287092</v>
+        <v>-0.01964291200634553</v>
       </c>
       <c r="E79">
-        <v>-0.002718631168792905</v>
+        <v>-0.04942631239930862</v>
       </c>
       <c r="F79">
-        <v>0.02808240087295522</v>
+        <v>0.003607656270994707</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07267335421280065</v>
+        <v>-0.08036639415309148</v>
       </c>
       <c r="C80">
-        <v>0.06988339758575225</v>
+        <v>0.0008865224576590061</v>
       </c>
       <c r="D80">
-        <v>0.07295095317774522</v>
+        <v>-0.0588455919002274</v>
       </c>
       <c r="E80">
-        <v>-0.02873065804014585</v>
+        <v>-0.03699426997922763</v>
       </c>
       <c r="F80">
-        <v>0.0255038401931187</v>
+        <v>-0.01401974279697596</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1403430778125236</v>
+        <v>-0.123533924613286</v>
       </c>
       <c r="C81">
-        <v>0.07359427005192341</v>
+        <v>-0.03033229996166776</v>
       </c>
       <c r="D81">
-        <v>0.01143200684368242</v>
+        <v>-0.01832539082814326</v>
       </c>
       <c r="E81">
-        <v>0.006858486027756657</v>
+        <v>-0.05986239650842583</v>
       </c>
       <c r="F81">
-        <v>0.02550454769317739</v>
+        <v>0.004937809870724568</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1591743275640188</v>
+        <v>-0.164558313201128</v>
       </c>
       <c r="C82">
-        <v>0.05883624353404272</v>
+        <v>-0.0219320054201</v>
       </c>
       <c r="D82">
-        <v>0.01918991796343671</v>
+        <v>-0.01451001758829011</v>
       </c>
       <c r="E82">
-        <v>-0.03001562969605118</v>
+        <v>-0.03570630057120155</v>
       </c>
       <c r="F82">
-        <v>0.04342158789082338</v>
+        <v>0.06415458310537611</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0866640161611467</v>
+        <v>-0.06258269848519388</v>
       </c>
       <c r="C83">
-        <v>0.1120176215764475</v>
+        <v>-0.003217371411943901</v>
       </c>
       <c r="D83">
-        <v>-0.01129436091790943</v>
+        <v>-0.05008284461372511</v>
       </c>
       <c r="E83">
-        <v>0.03139558542270471</v>
+        <v>-0.004835278583844987</v>
       </c>
       <c r="F83">
-        <v>-0.01888489442038161</v>
+        <v>-0.04186960337335342</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05972534338065788</v>
+        <v>-0.05911567352140219</v>
       </c>
       <c r="C84">
-        <v>-0.03727212088492003</v>
+        <v>-0.01082012928065745</v>
       </c>
       <c r="D84">
-        <v>-0.004509542132128881</v>
+        <v>-0.06459101227790852</v>
       </c>
       <c r="E84">
-        <v>-0.06386113265522471</v>
+        <v>-0.003032981628162288</v>
       </c>
       <c r="F84">
-        <v>0.04338551185429654</v>
+        <v>0.01092783771032393</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1251201791950849</v>
+        <v>-0.1391729472497716</v>
       </c>
       <c r="C85">
-        <v>0.04183286613609585</v>
+        <v>-0.02609536522857353</v>
       </c>
       <c r="D85">
-        <v>0.001942561795559405</v>
+        <v>-0.01496328543815096</v>
       </c>
       <c r="E85">
-        <v>-0.001564873515521997</v>
+        <v>-0.04147480310895197</v>
       </c>
       <c r="F85">
-        <v>0.04159651093713962</v>
+        <v>0.0448882407618876</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1592626623862441</v>
+        <v>-0.09495971870828195</v>
       </c>
       <c r="C86">
-        <v>-0.01691702446230372</v>
+        <v>0.006630605107574163</v>
       </c>
       <c r="D86">
-        <v>-0.9428940787524587</v>
+        <v>-0.02456108084602803</v>
       </c>
       <c r="E86">
-        <v>0.03676587424396326</v>
+        <v>-0.1505437551998118</v>
       </c>
       <c r="F86">
-        <v>-0.06110897192841287</v>
+        <v>-0.8656306741828541</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1247930616400231</v>
+        <v>-0.0961570574030778</v>
       </c>
       <c r="C87">
-        <v>0.1138420206154499</v>
+        <v>-0.02219448053488646</v>
       </c>
       <c r="D87">
-        <v>-0.00447755195126438</v>
+        <v>-0.08896325767796423</v>
       </c>
       <c r="E87">
-        <v>-0.002494253499695964</v>
+        <v>0.05340116320184644</v>
       </c>
       <c r="F87">
-        <v>0.04161377286524757</v>
+        <v>0.08386051004302641</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05286919435055094</v>
+        <v>-0.0607909921572808</v>
       </c>
       <c r="C88">
-        <v>0.03854344817550816</v>
+        <v>-0.002756191949232307</v>
       </c>
       <c r="D88">
-        <v>0.02414825927698781</v>
+        <v>-0.05406067457430053</v>
       </c>
       <c r="E88">
-        <v>-0.05690166359570058</v>
+        <v>-0.02791141423934709</v>
       </c>
       <c r="F88">
-        <v>0.006366137236516865</v>
+        <v>0.007447123461971865</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1740245282411572</v>
+        <v>-0.1366830901427391</v>
       </c>
       <c r="C89">
-        <v>-0.3629593181652764</v>
+        <v>-0.009512270919316159</v>
       </c>
       <c r="D89">
-        <v>0.04934472733383168</v>
+        <v>0.2558377854718006</v>
       </c>
       <c r="E89">
-        <v>0.04273607590345987</v>
+        <v>0.09205157826109477</v>
       </c>
       <c r="F89">
-        <v>0.01119055638052482</v>
+        <v>0.01962078682366454</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1336857566723534</v>
+        <v>-0.1474091015800134</v>
       </c>
       <c r="C90">
-        <v>-0.2712385751416958</v>
+        <v>-0.02691561888889153</v>
       </c>
       <c r="D90">
-        <v>0.02794914790400029</v>
+        <v>0.2661035937874986</v>
       </c>
       <c r="E90">
-        <v>-0.04873723026858605</v>
+        <v>0.108512608067734</v>
       </c>
       <c r="F90">
-        <v>0.009437163296652801</v>
+        <v>0.02285123097245088</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08295433318512907</v>
+        <v>-0.1191545268564539</v>
       </c>
       <c r="C91">
-        <v>0.03839251236838835</v>
+        <v>-0.01678037519784738</v>
       </c>
       <c r="D91">
-        <v>-0.01231743594083103</v>
+        <v>0.008272270629057766</v>
       </c>
       <c r="E91">
-        <v>0.0008363486008404833</v>
+        <v>-0.05696432188159004</v>
       </c>
       <c r="F91">
-        <v>0.03155790794765373</v>
+        <v>-0.01909111933873278</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.147075262488701</v>
+        <v>-0.1505481259455431</v>
       </c>
       <c r="C92">
-        <v>-0.3231587504713795</v>
+        <v>-0.0186558500920617</v>
       </c>
       <c r="D92">
-        <v>0.04296711145951644</v>
+        <v>0.2958415870083306</v>
       </c>
       <c r="E92">
-        <v>0.01706862443007105</v>
+        <v>0.1049261177400846</v>
       </c>
       <c r="F92">
-        <v>-0.006399400942627547</v>
+        <v>0.01788287619690062</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1359199701029556</v>
+        <v>-0.1517959108620509</v>
       </c>
       <c r="C93">
-        <v>-0.3214516618805593</v>
+        <v>-0.02300508819995921</v>
       </c>
       <c r="D93">
-        <v>0.01329269984840304</v>
+        <v>0.2667897081003281</v>
       </c>
       <c r="E93">
-        <v>-0.07638692276195939</v>
+        <v>0.07557110672972552</v>
       </c>
       <c r="F93">
-        <v>0.01264442700034841</v>
+        <v>0.01700519661884546</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1394101877856698</v>
+        <v>-0.1330756751668444</v>
       </c>
       <c r="C94">
-        <v>0.06255062250136864</v>
+        <v>-0.02359084472792463</v>
       </c>
       <c r="D94">
-        <v>0.04117854565117242</v>
+        <v>-0.04582143969283634</v>
       </c>
       <c r="E94">
-        <v>0.02158945569952806</v>
+        <v>-0.06079711392409293</v>
       </c>
       <c r="F94">
-        <v>0.0285375870690503</v>
+        <v>0.03022662513627127</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1108947522393183</v>
+        <v>-0.1249813392826544</v>
       </c>
       <c r="C95">
-        <v>0.02641983840288974</v>
+        <v>-0.004841015921936642</v>
       </c>
       <c r="D95">
-        <v>0.02411568485324969</v>
+        <v>-0.09071299248851639</v>
       </c>
       <c r="E95">
-        <v>0.0388286108824926</v>
+        <v>-0.04426297519810196</v>
       </c>
       <c r="F95">
-        <v>0.03629587677975576</v>
+        <v>-0.01437047527693408</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01326285231763069</v>
+        <v>-0.09847309968892859</v>
       </c>
       <c r="C96">
-        <v>-0.00182580397359247</v>
+        <v>0.9888417888874156</v>
       </c>
       <c r="D96">
-        <v>-0.001932414760265109</v>
+        <v>0.03367887443981035</v>
       </c>
       <c r="E96">
-        <v>0.007886292673648118</v>
+        <v>-0.05831654614129141</v>
       </c>
       <c r="F96">
-        <v>-0.005819894405357488</v>
+        <v>0.04679264457987318</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1768384769322483</v>
+        <v>-0.1885702587872434</v>
       </c>
       <c r="C97">
-        <v>0.07447893349440073</v>
+        <v>0.01081770805612241</v>
       </c>
       <c r="D97">
-        <v>0.0671146090031237</v>
+        <v>0.007247587964757381</v>
       </c>
       <c r="E97">
-        <v>0.1210077842160364</v>
+        <v>-0.0182330451684764</v>
       </c>
       <c r="F97">
-        <v>-0.853716335509718</v>
+        <v>-0.1682334193396872</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2456896172395802</v>
+        <v>-0.2051472507272204</v>
       </c>
       <c r="C98">
-        <v>0.02979797903741123</v>
+        <v>-0.007066300937542166</v>
       </c>
       <c r="D98">
-        <v>-0.02655048703579959</v>
+        <v>-0.01074121699333969</v>
       </c>
       <c r="E98">
-        <v>0.08278043915527282</v>
+        <v>0.09816738443525309</v>
       </c>
       <c r="F98">
-        <v>0.02846770048625897</v>
+        <v>-0.1111081429761588</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04258528759917585</v>
+        <v>-0.05593795758057275</v>
       </c>
       <c r="C99">
-        <v>-0.01043244205979601</v>
+        <v>0.004033128075452261</v>
       </c>
       <c r="D99">
-        <v>0.04312621308320864</v>
+        <v>-0.03593674367045194</v>
       </c>
       <c r="E99">
-        <v>0.02486609062680327</v>
+        <v>-0.02679818166843165</v>
       </c>
       <c r="F99">
-        <v>0.01629490405074333</v>
+        <v>0.003652510145680196</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.02957288333005095</v>
+        <v>-0.1221797798995789</v>
       </c>
       <c r="C100">
-        <v>0.0760726213693779</v>
+        <v>0.05183540518616287</v>
       </c>
       <c r="D100">
-        <v>0.1102463855578132</v>
+        <v>-0.3485001924050311</v>
       </c>
       <c r="E100">
-        <v>-0.05638647954424585</v>
+        <v>0.8939245324145052</v>
       </c>
       <c r="F100">
-        <v>-0.04391346889365105</v>
+        <v>-0.07212047152020369</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03319999005869564</v>
+        <v>-0.02714190531133709</v>
       </c>
       <c r="C101">
-        <v>0.02091433625663788</v>
+        <v>-0.008692429799393952</v>
       </c>
       <c r="D101">
-        <v>0.01005127132120713</v>
+        <v>-0.03037186524378163</v>
       </c>
       <c r="E101">
-        <v>-0.03769877635586211</v>
+        <v>-0.01167636171570152</v>
       </c>
       <c r="F101">
-        <v>0.03792324693892752</v>
+        <v>-0.01330031923239293</v>
       </c>
     </row>
     <row r="102" spans="1:6">
